--- a/IUCN/GET/IUCN-GET-profiles-exported-2023-06-14.xlsx
+++ b/IUCN/GET/IUCN-GET-profiles-exported-2023-06-14.xlsx
@@ -1,29 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Documents\NEAP\Ecosystem-Typology\IUCN\GET\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fishe\Dropbox\Documents\NEAP\Ecosystem-Typology\IUCN\GET\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC3EFC2B-1D14-4308-BC3F-F68A9B54A98B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E20D88A-A904-4794-AB3C-4D0C4E81ABA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Short description" sheetId="2" r:id="rId2"/>
     <sheet name="Profile text" sheetId="3" r:id="rId3"/>
     <sheet name="List of References" sheetId="4" r:id="rId4"/>
+    <sheet name="freshwater" sheetId="5" r:id="rId5"/>
+    <sheet name="terrestrial" sheetId="6" r:id="rId6"/>
+    <sheet name="marine" sheetId="7" r:id="rId7"/>
+    <sheet name="transitional" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3472" uniqueCount="2456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3992" uniqueCount="2459">
   <si>
     <t>Profiles of IUCN Global Ecosystem Typology Level 3 units</t>
   </si>
@@ -7396,6 +7400,15 @@
   </si>
   <si>
     <t>10.1672/0277-5212(2002)022[0722:llptlh]2.0.co;2</t>
+  </si>
+  <si>
+    <t>Australia (Y/N)</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -7403,7 +7416,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -7483,7 +7496,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -7499,7 +7512,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -7811,128 +7827,128 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="90" customWidth="1"/>
     <col min="2" max="2" width="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="22.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="87" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" ht="105" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>23</v>
       </c>
@@ -7955,15 +7971,23 @@
   <dimension ref="A1:I111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B59" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B80" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" sqref="A1:D111"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="59.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" customWidth="1"/>
+    <col min="8" max="8" width="171.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>24</v>
       </c>
@@ -7992,7 +8016,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -8021,7 +8045,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>41</v>
       </c>
@@ -8050,7 +8074,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>48</v>
       </c>
@@ -8079,7 +8103,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>55</v>
       </c>
@@ -8108,7 +8132,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>62</v>
       </c>
@@ -8137,7 +8161,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>69</v>
       </c>
@@ -8166,7 +8190,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>76</v>
       </c>
@@ -8195,7 +8219,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>82</v>
       </c>
@@ -8224,7 +8248,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>89</v>
       </c>
@@ -8253,7 +8277,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>96</v>
       </c>
@@ -8282,7 +8306,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>103</v>
       </c>
@@ -8311,7 +8335,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>110</v>
       </c>
@@ -8340,7 +8364,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>117</v>
       </c>
@@ -8369,7 +8393,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>124</v>
       </c>
@@ -8398,7 +8422,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>131</v>
       </c>
@@ -8427,7 +8451,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>138</v>
       </c>
@@ -8456,7 +8480,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>145</v>
       </c>
@@ -8485,7 +8509,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>152</v>
       </c>
@@ -8514,7 +8538,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>159</v>
       </c>
@@ -8543,7 +8567,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>165</v>
       </c>
@@ -8572,7 +8596,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>171</v>
       </c>
@@ -8601,7 +8625,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>178</v>
       </c>
@@ -8630,7 +8654,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>184</v>
       </c>
@@ -8659,7 +8683,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>192</v>
       </c>
@@ -8688,7 +8712,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>198</v>
       </c>
@@ -8717,7 +8741,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>205</v>
       </c>
@@ -8746,7 +8770,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>213</v>
       </c>
@@ -8775,7 +8799,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>219</v>
       </c>
@@ -8804,7 +8828,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>225</v>
       </c>
@@ -8833,7 +8857,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>231</v>
       </c>
@@ -8862,7 +8886,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>237</v>
       </c>
@@ -8891,7 +8915,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>243</v>
       </c>
@@ -8920,7 +8944,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>249</v>
       </c>
@@ -8949,7 +8973,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>255</v>
       </c>
@@ -8978,7 +9002,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>261</v>
       </c>
@@ -9007,7 +9031,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>268</v>
       </c>
@@ -9036,7 +9060,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>276</v>
       </c>
@@ -9065,7 +9089,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>282</v>
       </c>
@@ -9094,7 +9118,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>288</v>
       </c>
@@ -9123,7 +9147,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>295</v>
       </c>
@@ -9152,7 +9176,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>301</v>
       </c>
@@ -9181,7 +9205,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>309</v>
       </c>
@@ -9210,7 +9234,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>316</v>
       </c>
@@ -9239,7 +9263,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>323</v>
       </c>
@@ -9268,7 +9292,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>330</v>
       </c>
@@ -9297,7 +9321,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>336</v>
       </c>
@@ -9326,7 +9350,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>342</v>
       </c>
@@ -9355,7 +9379,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>348</v>
       </c>
@@ -9384,7 +9408,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>355</v>
       </c>
@@ -9413,7 +9437,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>361</v>
       </c>
@@ -9442,7 +9466,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>369</v>
       </c>
@@ -9471,7 +9495,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>376</v>
       </c>
@@ -9500,7 +9524,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>383</v>
       </c>
@@ -9529,7 +9553,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>391</v>
       </c>
@@ -9558,7 +9582,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>398</v>
       </c>
@@ -9587,7 +9611,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>405</v>
       </c>
@@ -9616,7 +9640,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>412</v>
       </c>
@@ -9645,7 +9669,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>420</v>
       </c>
@@ -9674,7 +9698,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>426</v>
       </c>
@@ -9703,7 +9727,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>434</v>
       </c>
@@ -9732,7 +9756,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>441</v>
       </c>
@@ -9761,7 +9785,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>447</v>
       </c>
@@ -9790,7 +9814,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>454</v>
       </c>
@@ -9819,7 +9843,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>461</v>
       </c>
@@ -9848,7 +9872,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>466</v>
       </c>
@@ -9877,7 +9901,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>474</v>
       </c>
@@ -9906,7 +9930,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>481</v>
       </c>
@@ -9935,7 +9959,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>488</v>
       </c>
@@ -9964,7 +9988,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>493</v>
       </c>
@@ -9993,7 +10017,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>499</v>
       </c>
@@ -10022,7 +10046,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>507</v>
       </c>
@@ -10051,7 +10075,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>514</v>
       </c>
@@ -10080,7 +10104,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>521</v>
       </c>
@@ -10109,7 +10133,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>528</v>
       </c>
@@ -10138,7 +10162,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>536</v>
       </c>
@@ -10167,7 +10191,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>542</v>
       </c>
@@ -10196,7 +10220,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>549</v>
       </c>
@@ -10225,7 +10249,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>556</v>
       </c>
@@ -10254,7 +10278,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>563</v>
       </c>
@@ -10283,7 +10307,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>570</v>
       </c>
@@ -10312,7 +10336,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>578</v>
       </c>
@@ -10341,7 +10365,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>585</v>
       </c>
@@ -10370,7 +10394,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>592</v>
       </c>
@@ -10399,7 +10423,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>599</v>
       </c>
@@ -10428,7 +10452,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>607</v>
       </c>
@@ -10457,7 +10481,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>613</v>
       </c>
@@ -10486,7 +10510,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>618</v>
       </c>
@@ -10515,7 +10539,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>624</v>
       </c>
@@ -10544,7 +10568,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>631</v>
       </c>
@@ -10573,7 +10597,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>639</v>
       </c>
@@ -10602,7 +10626,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>645</v>
       </c>
@@ -10631,7 +10655,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>652</v>
       </c>
@@ -10660,7 +10684,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>659</v>
       </c>
@@ -10689,7 +10713,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>665</v>
       </c>
@@ -10718,7 +10742,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>673</v>
       </c>
@@ -10747,7 +10771,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>680</v>
       </c>
@@ -10776,7 +10800,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>687</v>
       </c>
@@ -10805,7 +10829,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>694</v>
       </c>
@@ -10834,7 +10858,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>701</v>
       </c>
@@ -10863,7 +10887,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>709</v>
       </c>
@@ -10892,7 +10916,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>716</v>
       </c>
@@ -10921,7 +10945,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>722</v>
       </c>
@@ -10950,7 +10974,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>727</v>
       </c>
@@ -10979,7 +11003,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>734</v>
       </c>
@@ -11008,7 +11032,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>742</v>
       </c>
@@ -11037,7 +11061,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>749</v>
       </c>
@@ -11066,7 +11090,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>755</v>
       </c>
@@ -11095,7 +11119,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>761</v>
       </c>
@@ -11124,7 +11148,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>767</v>
       </c>
@@ -11153,7 +11177,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>774</v>
       </c>
@@ -11191,16 +11215,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B56" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>24</v>
       </c>
@@ -11223,7 +11247,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>585</v>
       </c>
@@ -11246,7 +11270,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>599</v>
       </c>
@@ -11269,7 +11293,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>499</v>
       </c>
@@ -11292,7 +11316,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>701</v>
       </c>
@@ -11315,7 +11339,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>447</v>
       </c>
@@ -11338,7 +11362,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>549</v>
       </c>
@@ -11361,7 +11385,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>466</v>
       </c>
@@ -11384,7 +11408,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>493</v>
       </c>
@@ -11407,7 +11431,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>734</v>
       </c>
@@ -11430,7 +11454,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>536</v>
       </c>
@@ -11453,7 +11477,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>592</v>
       </c>
@@ -11476,7 +11500,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>542</v>
       </c>
@@ -11499,7 +11523,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>82</v>
       </c>
@@ -11522,7 +11546,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>563</v>
       </c>
@@ -11545,7 +11569,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>556</v>
       </c>
@@ -11568,7 +11592,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>570</v>
       </c>
@@ -11591,7 +11615,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>198</v>
       </c>
@@ -11614,7 +11638,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>261</v>
       </c>
@@ -11637,7 +11661,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>507</v>
       </c>
@@ -11660,7 +11684,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>528</v>
       </c>
@@ -11683,7 +11707,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>521</v>
       </c>
@@ -11706,7 +11730,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>514</v>
       </c>
@@ -11729,7 +11753,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>578</v>
       </c>
@@ -11752,7 +11776,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>607</v>
       </c>
@@ -11775,7 +11799,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>613</v>
       </c>
@@ -11798,7 +11822,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>624</v>
       </c>
@@ -11821,7 +11845,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>659</v>
       </c>
@@ -11844,7 +11868,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>652</v>
       </c>
@@ -11867,7 +11891,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>631</v>
       </c>
@@ -11890,7 +11914,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>645</v>
       </c>
@@ -11913,7 +11937,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>618</v>
       </c>
@@ -11936,7 +11960,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>639</v>
       </c>
@@ -11959,7 +11983,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>673</v>
       </c>
@@ -11982,7 +12006,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>687</v>
       </c>
@@ -12005,7 +12029,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>694</v>
       </c>
@@ -12028,7 +12052,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>665</v>
       </c>
@@ -12051,7 +12075,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>709</v>
       </c>
@@ -12074,7 +12098,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>680</v>
       </c>
@@ -12097,7 +12121,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>716</v>
       </c>
@@ -12120,7 +12144,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>722</v>
       </c>
@@ -12143,7 +12167,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>727</v>
       </c>
@@ -12166,7 +12190,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>434</v>
       </c>
@@ -12189,7 +12213,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>441</v>
       </c>
@@ -12212,7 +12236,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>454</v>
       </c>
@@ -12235,7 +12259,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>461</v>
       </c>
@@ -12258,7 +12282,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>474</v>
       </c>
@@ -12281,7 +12305,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>488</v>
       </c>
@@ -12304,7 +12328,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>481</v>
       </c>
@@ -12327,7 +12351,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>742</v>
       </c>
@@ -12350,7 +12374,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>749</v>
       </c>
@@ -12373,7 +12397,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>755</v>
       </c>
@@ -12396,7 +12420,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>761</v>
       </c>
@@ -12419,7 +12443,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>62</v>
       </c>
@@ -12442,7 +12466,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>767</v>
       </c>
@@ -12465,7 +12489,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -12488,7 +12512,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>41</v>
       </c>
@@ -12511,7 +12535,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>33</v>
       </c>
@@ -12534,7 +12558,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>76</v>
       </c>
@@ -12557,7 +12581,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>774</v>
       </c>
@@ -12580,7 +12604,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>69</v>
       </c>
@@ -12603,7 +12627,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>89</v>
       </c>
@@ -12626,7 +12650,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>96</v>
       </c>
@@ -12649,7 +12673,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>103</v>
       </c>
@@ -12672,7 +12696,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>48</v>
       </c>
@@ -12695,7 +12719,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>110</v>
       </c>
@@ -12718,7 +12742,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>117</v>
       </c>
@@ -12741,7 +12765,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>124</v>
       </c>
@@ -12764,7 +12788,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>145</v>
       </c>
@@ -12787,7 +12811,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>131</v>
       </c>
@@ -12810,7 +12834,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>138</v>
       </c>
@@ -12833,7 +12857,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>178</v>
       </c>
@@ -12856,7 +12880,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>152</v>
       </c>
@@ -12879,7 +12903,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>159</v>
       </c>
@@ -12902,7 +12926,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>165</v>
       </c>
@@ -12925,7 +12949,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>171</v>
       </c>
@@ -12948,7 +12972,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>192</v>
       </c>
@@ -12971,7 +12995,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>184</v>
       </c>
@@ -12994,7 +13018,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>249</v>
       </c>
@@ -13017,7 +13041,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>243</v>
       </c>
@@ -13040,7 +13064,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>237</v>
       </c>
@@ -13063,7 +13087,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>231</v>
       </c>
@@ -13086,7 +13110,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>225</v>
       </c>
@@ -13109,7 +13133,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>213</v>
       </c>
@@ -13132,7 +13156,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>255</v>
       </c>
@@ -13155,7 +13179,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>268</v>
       </c>
@@ -13178,7 +13202,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>282</v>
       </c>
@@ -13201,7 +13225,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>205</v>
       </c>
@@ -13224,7 +13248,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>295</v>
       </c>
@@ -13247,7 +13271,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>276</v>
       </c>
@@ -13270,7 +13294,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>219</v>
       </c>
@@ -13293,7 +13317,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>323</v>
       </c>
@@ -13316,7 +13340,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>355</v>
       </c>
@@ -13339,7 +13363,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>288</v>
       </c>
@@ -13362,7 +13386,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>336</v>
       </c>
@@ -13385,7 +13409,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>342</v>
       </c>
@@ -13408,7 +13432,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>301</v>
       </c>
@@ -13431,7 +13455,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>330</v>
       </c>
@@ -13454,7 +13478,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>316</v>
       </c>
@@ -13477,7 +13501,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>405</v>
       </c>
@@ -13500,7 +13524,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>420</v>
       </c>
@@ -13523,7 +13547,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>376</v>
       </c>
@@ -13546,7 +13570,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>348</v>
       </c>
@@ -13569,7 +13593,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>309</v>
       </c>
@@ -13592,7 +13616,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>383</v>
       </c>
@@ -13615,7 +13639,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>391</v>
       </c>
@@ -13638,7 +13662,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>398</v>
       </c>
@@ -13661,7 +13685,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>426</v>
       </c>
@@ -13684,7 +13708,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>412</v>
       </c>
@@ -13707,7 +13731,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>369</v>
       </c>
@@ -13730,7 +13754,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>361</v>
       </c>
@@ -13769,9 +13793,9 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>24</v>
       </c>
@@ -13797,7 +13821,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>62</v>
       </c>
@@ -13823,7 +13847,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>62</v>
       </c>
@@ -13843,7 +13867,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>62</v>
       </c>
@@ -13863,7 +13887,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>55</v>
       </c>
@@ -13889,7 +13913,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>48</v>
       </c>
@@ -13915,7 +13939,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>48</v>
       </c>
@@ -13941,7 +13965,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>41</v>
       </c>
@@ -13967,7 +13991,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>41</v>
       </c>
@@ -13993,7 +14017,7 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>41</v>
       </c>
@@ -14013,7 +14037,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>41</v>
       </c>
@@ -14039,7 +14063,7 @@
         <v>1285</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -14065,7 +14089,7 @@
         <v>1292</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -14085,7 +14109,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -14111,7 +14135,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>76</v>
       </c>
@@ -14131,7 +14155,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>76</v>
       </c>
@@ -14154,7 +14178,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>69</v>
       </c>
@@ -14180,7 +14204,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>69</v>
       </c>
@@ -14206,7 +14230,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>89</v>
       </c>
@@ -14232,7 +14256,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>89</v>
       </c>
@@ -14258,7 +14282,7 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>82</v>
       </c>
@@ -14281,7 +14305,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>82</v>
       </c>
@@ -14307,7 +14331,7 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>82</v>
       </c>
@@ -14333,7 +14357,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>96</v>
       </c>
@@ -14356,7 +14380,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>96</v>
       </c>
@@ -14382,7 +14406,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>103</v>
       </c>
@@ -14405,7 +14429,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>103</v>
       </c>
@@ -14428,7 +14452,7 @@
         <v>1376</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>103</v>
       </c>
@@ -14451,7 +14475,7 @@
         <v>1381</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>110</v>
       </c>
@@ -14474,7 +14498,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>110</v>
       </c>
@@ -14497,7 +14521,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>117</v>
       </c>
@@ -14520,7 +14544,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>117</v>
       </c>
@@ -14543,7 +14567,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>117</v>
       </c>
@@ -14566,7 +14590,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>124</v>
       </c>
@@ -14589,7 +14613,7 @@
         <v>1414</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>124</v>
       </c>
@@ -14612,7 +14636,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>124</v>
       </c>
@@ -14638,7 +14662,7 @@
         <v>1425</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>145</v>
       </c>
@@ -14661,7 +14685,7 @@
         <v>1431</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>145</v>
       </c>
@@ -14684,7 +14708,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>145</v>
       </c>
@@ -14707,7 +14731,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>131</v>
       </c>
@@ -14733,7 +14757,7 @@
         <v>1442</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>131</v>
       </c>
@@ -14756,7 +14780,7 @@
         <v>1447</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>131</v>
       </c>
@@ -14779,7 +14803,7 @@
         <v>1452</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>138</v>
       </c>
@@ -14802,7 +14826,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>138</v>
       </c>
@@ -14825,7 +14849,7 @@
         <v>1462</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>178</v>
       </c>
@@ -14851,7 +14875,7 @@
         <v>1469</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>178</v>
       </c>
@@ -14877,7 +14901,7 @@
         <v>1475</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>152</v>
       </c>
@@ -14903,7 +14927,7 @@
         <v>1481</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>152</v>
       </c>
@@ -14929,7 +14953,7 @@
         <v>1487</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>152</v>
       </c>
@@ -14955,7 +14979,7 @@
         <v>1494</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>159</v>
       </c>
@@ -14978,7 +15002,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>159</v>
       </c>
@@ -15004,7 +15028,7 @@
         <v>1506</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>165</v>
       </c>
@@ -15030,7 +15054,7 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>171</v>
       </c>
@@ -15056,7 +15080,7 @@
         <v>1481</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>171</v>
       </c>
@@ -15082,7 +15106,7 @@
         <v>1518</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>171</v>
       </c>
@@ -15108,7 +15132,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>171</v>
       </c>
@@ -15134,7 +15158,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>192</v>
       </c>
@@ -15157,7 +15181,7 @@
         <v>1535</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>192</v>
       </c>
@@ -15183,7 +15207,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>192</v>
       </c>
@@ -15206,7 +15230,7 @@
         <v>1547</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>184</v>
       </c>
@@ -15229,7 +15253,7 @@
         <v>1552</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>198</v>
       </c>
@@ -15252,7 +15276,7 @@
         <v>1557</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>198</v>
       </c>
@@ -15275,7 +15299,7 @@
         <v>1562</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>255</v>
       </c>
@@ -15301,7 +15325,7 @@
         <v>1568</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>255</v>
       </c>
@@ -15327,7 +15351,7 @@
         <v>1574</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>255</v>
       </c>
@@ -15350,7 +15374,7 @@
         <v>1579</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>255</v>
       </c>
@@ -15370,7 +15394,7 @@
         <v>1583</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>261</v>
       </c>
@@ -15390,7 +15414,7 @@
         <v>1587</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>261</v>
       </c>
@@ -15413,7 +15437,7 @@
         <v>1592</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>261</v>
       </c>
@@ -15436,7 +15460,7 @@
         <v>1598</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>261</v>
       </c>
@@ -15462,7 +15486,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>249</v>
       </c>
@@ -15488,7 +15512,7 @@
         <v>1610</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>249</v>
       </c>
@@ -15514,7 +15538,7 @@
         <v>1616</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>243</v>
       </c>
@@ -15534,7 +15558,7 @@
         <v>1620</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>237</v>
       </c>
@@ -15560,7 +15584,7 @@
         <v>1626</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>237</v>
       </c>
@@ -15586,7 +15610,7 @@
         <v>1632</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>205</v>
       </c>
@@ -15609,7 +15633,7 @@
         <v>1637</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>205</v>
       </c>
@@ -15629,7 +15653,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>205</v>
       </c>
@@ -15652,7 +15676,7 @@
         <v>1646</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>231</v>
       </c>
@@ -15675,7 +15699,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>225</v>
       </c>
@@ -15698,7 +15722,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>225</v>
       </c>
@@ -15724,7 +15748,7 @@
         <v>1663</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>219</v>
       </c>
@@ -15750,7 +15774,7 @@
         <v>1663</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>219</v>
       </c>
@@ -15773,7 +15797,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>213</v>
       </c>
@@ -15796,7 +15820,7 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>213</v>
       </c>
@@ -15819,7 +15843,7 @@
         <v>1674</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>288</v>
       </c>
@@ -15842,7 +15866,7 @@
         <v>1679</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>288</v>
       </c>
@@ -15865,7 +15889,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>288</v>
       </c>
@@ -15888,7 +15912,7 @@
         <v>1689</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>268</v>
       </c>
@@ -15911,7 +15935,7 @@
         <v>1679</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>268</v>
       </c>
@@ -15934,7 +15958,7 @@
         <v>1694</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>282</v>
       </c>
@@ -15957,7 +15981,7 @@
         <v>1699</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>295</v>
       </c>
@@ -15980,7 +16004,7 @@
         <v>1699</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>276</v>
       </c>
@@ -16006,7 +16030,7 @@
         <v>1706</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>276</v>
       </c>
@@ -16032,7 +16056,7 @@
         <v>1712</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>276</v>
       </c>
@@ -16055,7 +16079,7 @@
         <v>1718</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>323</v>
       </c>
@@ -16081,7 +16105,7 @@
         <v>1724</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>336</v>
       </c>
@@ -16104,7 +16128,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>342</v>
       </c>
@@ -16130,7 +16154,7 @@
         <v>1735</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>301</v>
       </c>
@@ -16156,7 +16180,7 @@
         <v>1741</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>301</v>
       </c>
@@ -16179,7 +16203,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>330</v>
       </c>
@@ -16205,7 +16229,7 @@
         <v>1752</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>330</v>
       </c>
@@ -16225,7 +16249,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>330</v>
       </c>
@@ -16248,7 +16272,7 @@
         <v>1757</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>316</v>
       </c>
@@ -16274,7 +16298,7 @@
         <v>1763</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>316</v>
       </c>
@@ -16300,7 +16324,7 @@
         <v>1769</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>309</v>
       </c>
@@ -16323,7 +16347,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>348</v>
       </c>
@@ -16349,7 +16373,7 @@
         <v>1780</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>348</v>
       </c>
@@ -16375,7 +16399,7 @@
         <v>1786</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>348</v>
       </c>
@@ -16398,7 +16422,7 @@
         <v>1791</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>348</v>
       </c>
@@ -16421,7 +16445,7 @@
         <v>1796</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>355</v>
       </c>
@@ -16444,7 +16468,7 @@
         <v>1801</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>355</v>
       </c>
@@ -16467,7 +16491,7 @@
         <v>1806</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>369</v>
       </c>
@@ -16493,7 +16517,7 @@
         <v>1812</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>369</v>
       </c>
@@ -16519,7 +16543,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>376</v>
       </c>
@@ -16545,7 +16569,7 @@
         <v>1824</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>376</v>
       </c>
@@ -16571,7 +16595,7 @@
         <v>1830</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>376</v>
       </c>
@@ -16597,7 +16621,7 @@
         <v>1836</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>361</v>
       </c>
@@ -16623,7 +16647,7 @@
         <v>1842</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>361</v>
       </c>
@@ -16646,7 +16670,7 @@
         <v>1847</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>361</v>
       </c>
@@ -16669,7 +16693,7 @@
         <v>1853</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>383</v>
       </c>
@@ -16695,7 +16719,7 @@
         <v>1859</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>383</v>
       </c>
@@ -16721,7 +16745,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>398</v>
       </c>
@@ -16744,7 +16768,7 @@
         <v>1871</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>398</v>
       </c>
@@ -16767,7 +16791,7 @@
         <v>1876</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>398</v>
       </c>
@@ -16793,7 +16817,7 @@
         <v>1882</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>391</v>
       </c>
@@ -16819,7 +16843,7 @@
         <v>1888</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>391</v>
       </c>
@@ -16845,7 +16869,7 @@
         <v>1894</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>405</v>
       </c>
@@ -16871,7 +16895,7 @@
         <v>1901</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>405</v>
       </c>
@@ -16897,7 +16921,7 @@
         <v>1907</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>420</v>
       </c>
@@ -16920,7 +16944,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>412</v>
       </c>
@@ -16943,7 +16967,7 @@
         <v>1917</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>412</v>
       </c>
@@ -16966,7 +16990,7 @@
         <v>1922</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>412</v>
       </c>
@@ -16992,7 +17016,7 @@
         <v>1928</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>426</v>
       </c>
@@ -17015,7 +17039,7 @@
         <v>1933</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>434</v>
       </c>
@@ -17041,7 +17065,7 @@
         <v>1939</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>434</v>
       </c>
@@ -17064,7 +17088,7 @@
         <v>1944</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>441</v>
       </c>
@@ -17090,7 +17114,7 @@
         <v>1950</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>447</v>
       </c>
@@ -17116,7 +17140,7 @@
         <v>1939</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>447</v>
       </c>
@@ -17139,7 +17163,7 @@
         <v>1944</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>454</v>
       </c>
@@ -17165,7 +17189,7 @@
         <v>1939</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>461</v>
       </c>
@@ -17191,7 +17215,7 @@
         <v>1956</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>461</v>
       </c>
@@ -17211,7 +17235,7 @@
         <v>1960</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>461</v>
       </c>
@@ -17237,7 +17261,7 @@
         <v>1966</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>474</v>
       </c>
@@ -17263,7 +17287,7 @@
         <v>1972</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>466</v>
       </c>
@@ -17289,7 +17313,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>466</v>
       </c>
@@ -17315,7 +17339,7 @@
         <v>1984</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>466</v>
       </c>
@@ -17341,7 +17365,7 @@
         <v>1990</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>488</v>
       </c>
@@ -17364,7 +17388,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>481</v>
       </c>
@@ -17387,7 +17411,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>481</v>
       </c>
@@ -17410,7 +17434,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>493</v>
       </c>
@@ -17430,7 +17454,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>493</v>
       </c>
@@ -17450,7 +17474,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>493</v>
       </c>
@@ -17470,7 +17494,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>493</v>
       </c>
@@ -17493,7 +17517,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>521</v>
       </c>
@@ -17513,7 +17537,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>521</v>
       </c>
@@ -17533,7 +17557,7 @@
         <v>2031</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>514</v>
       </c>
@@ -17559,7 +17583,7 @@
         <v>2037</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>514</v>
       </c>
@@ -17582,7 +17606,7 @@
         <v>2042</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>514</v>
       </c>
@@ -17602,7 +17626,7 @@
         <v>2046</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>514</v>
       </c>
@@ -17628,7 +17652,7 @@
         <v>2053</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>499</v>
       </c>
@@ -17651,7 +17675,7 @@
         <v>2058</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>499</v>
       </c>
@@ -17671,7 +17695,7 @@
         <v>2031</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>499</v>
       </c>
@@ -17697,7 +17721,7 @@
         <v>2064</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>507</v>
       </c>
@@ -17720,7 +17744,7 @@
         <v>2069</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>507</v>
       </c>
@@ -17743,7 +17767,7 @@
         <v>2074</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>507</v>
       </c>
@@ -17766,7 +17790,7 @@
         <v>2079</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>507</v>
       </c>
@@ -17789,7 +17813,7 @@
         <v>2084</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>507</v>
       </c>
@@ -17809,7 +17833,7 @@
         <v>2031</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>528</v>
       </c>
@@ -17832,7 +17856,7 @@
         <v>2090</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>528</v>
       </c>
@@ -17852,7 +17876,7 @@
         <v>2094</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>528</v>
       </c>
@@ -17872,7 +17896,7 @@
         <v>2099</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>536</v>
       </c>
@@ -17892,7 +17916,7 @@
         <v>1587</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>536</v>
       </c>
@@ -17915,7 +17939,7 @@
         <v>2107</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>542</v>
       </c>
@@ -17938,7 +17962,7 @@
         <v>2112</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>542</v>
       </c>
@@ -17961,7 +17985,7 @@
         <v>2117</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>542</v>
       </c>
@@ -17984,7 +18008,7 @@
         <v>2122</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>549</v>
       </c>
@@ -18010,7 +18034,7 @@
         <v>2128</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>549</v>
       </c>
@@ -18033,7 +18057,7 @@
         <v>2133</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>549</v>
       </c>
@@ -18056,7 +18080,7 @@
         <v>2138</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>556</v>
       </c>
@@ -18079,7 +18103,7 @@
         <v>2143</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>556</v>
       </c>
@@ -18102,7 +18126,7 @@
         <v>2148</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>563</v>
       </c>
@@ -18125,7 +18149,7 @@
         <v>2153</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>563</v>
       </c>
@@ -18145,7 +18169,7 @@
         <v>2157</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>570</v>
       </c>
@@ -18168,7 +18192,7 @@
         <v>2162</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>570</v>
       </c>
@@ -18188,7 +18212,7 @@
         <v>2166</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>570</v>
       </c>
@@ -18211,7 +18235,7 @@
         <v>2171</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>585</v>
       </c>
@@ -18234,7 +18258,7 @@
         <v>2176</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>585</v>
       </c>
@@ -18254,7 +18278,7 @@
         <v>1852</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>592</v>
       </c>
@@ -18274,7 +18298,7 @@
         <v>2183</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>592</v>
       </c>
@@ -18300,7 +18324,7 @@
         <v>2189</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>592</v>
       </c>
@@ -18323,7 +18347,7 @@
         <v>2195</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>578</v>
       </c>
@@ -18349,7 +18373,7 @@
         <v>2201</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>578</v>
       </c>
@@ -18375,7 +18399,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>578</v>
       </c>
@@ -18398,7 +18422,7 @@
         <v>2212</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>607</v>
       </c>
@@ -18421,7 +18445,7 @@
         <v>2217</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>607</v>
       </c>
@@ -18444,7 +18468,7 @@
         <v>2222</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>613</v>
       </c>
@@ -18467,7 +18491,7 @@
         <v>2227</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>613</v>
       </c>
@@ -18490,7 +18514,7 @@
         <v>2232</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>618</v>
       </c>
@@ -18513,7 +18537,7 @@
         <v>2237</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>618</v>
       </c>
@@ -18536,7 +18560,7 @@
         <v>2232</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>599</v>
       </c>
@@ -18562,7 +18586,7 @@
         <v>2243</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>599</v>
       </c>
@@ -18582,7 +18606,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>599</v>
       </c>
@@ -18605,7 +18629,7 @@
         <v>2251</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>624</v>
       </c>
@@ -18625,7 +18649,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>659</v>
       </c>
@@ -18648,7 +18672,7 @@
         <v>2257</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>659</v>
       </c>
@@ -18671,7 +18695,7 @@
         <v>2262</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>652</v>
       </c>
@@ -18694,7 +18718,7 @@
         <v>2267</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>631</v>
       </c>
@@ -18720,7 +18744,7 @@
         <v>2273</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>631</v>
       </c>
@@ -18740,7 +18764,7 @@
         <v>2277</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>645</v>
       </c>
@@ -18763,7 +18787,7 @@
         <v>2281</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>645</v>
       </c>
@@ -18786,7 +18810,7 @@
         <v>2286</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>639</v>
       </c>
@@ -18812,7 +18836,7 @@
         <v>2292</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>639</v>
       </c>
@@ -18838,7 +18862,7 @@
         <v>2298</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>673</v>
       </c>
@@ -18861,7 +18885,7 @@
         <v>2303</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>673</v>
       </c>
@@ -18884,7 +18908,7 @@
         <v>2308</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>680</v>
       </c>
@@ -18910,7 +18934,7 @@
         <v>2314</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>680</v>
       </c>
@@ -18933,7 +18957,7 @@
         <v>2319</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>687</v>
       </c>
@@ -18953,7 +18977,7 @@
         <v>2094</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>687</v>
       </c>
@@ -18979,7 +19003,7 @@
         <v>2325</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>694</v>
       </c>
@@ -19005,7 +19029,7 @@
         <v>2325</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>694</v>
       </c>
@@ -19028,7 +19052,7 @@
         <v>2330</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>694</v>
       </c>
@@ -19054,7 +19078,7 @@
         <v>2336</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>665</v>
       </c>
@@ -19080,7 +19104,7 @@
         <v>2343</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>709</v>
       </c>
@@ -19106,7 +19130,7 @@
         <v>2349</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>709</v>
       </c>
@@ -19129,7 +19153,7 @@
         <v>2354</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>716</v>
       </c>
@@ -19152,7 +19176,7 @@
         <v>2359</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>716</v>
       </c>
@@ -19175,7 +19199,7 @@
         <v>2364</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>722</v>
       </c>
@@ -19198,7 +19222,7 @@
         <v>2369</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>722</v>
       </c>
@@ -19221,7 +19245,7 @@
         <v>2374</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>701</v>
       </c>
@@ -19247,7 +19271,7 @@
         <v>2380</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>701</v>
       </c>
@@ -19270,7 +19294,7 @@
         <v>2385</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>727</v>
       </c>
@@ -19296,7 +19320,7 @@
         <v>2391</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>727</v>
       </c>
@@ -19322,7 +19346,7 @@
         <v>2397</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>727</v>
       </c>
@@ -19348,7 +19372,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>742</v>
       </c>
@@ -19371,7 +19395,7 @@
         <v>2408</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>734</v>
       </c>
@@ -19394,7 +19418,7 @@
         <v>2413</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>749</v>
       </c>
@@ -19420,7 +19444,7 @@
         <v>2419</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>755</v>
       </c>
@@ -19443,7 +19467,7 @@
         <v>2424</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>761</v>
       </c>
@@ -19466,7 +19490,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>761</v>
       </c>
@@ -19489,7 +19513,7 @@
         <v>2434</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>761</v>
       </c>
@@ -19512,7 +19536,7 @@
         <v>2439</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>767</v>
       </c>
@@ -19535,7 +19559,7 @@
         <v>2444</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>767</v>
       </c>
@@ -19558,7 +19582,7 @@
         <v>2449</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>774</v>
       </c>
@@ -19581,7 +19605,7 @@
         <v>2449</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>774</v>
       </c>
@@ -19610,4 +19634,1872 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6185CE72-8CB4-4634-9B8C-E6D4A7A97C48}">
+  <dimension ref="A1:E23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="36.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.140625" customWidth="1"/>
+    <col min="5" max="5" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>2456</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>2457</v>
+      </c>
+      <c r="E2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>2457</v>
+      </c>
+      <c r="E3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>2457</v>
+      </c>
+      <c r="E4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>2457</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>2457</v>
+      </c>
+      <c r="E6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>2457</v>
+      </c>
+      <c r="E7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>2458</v>
+      </c>
+      <c r="E8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>2457</v>
+      </c>
+      <c r="E9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>2457</v>
+      </c>
+      <c r="E10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" t="s">
+        <v>104</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>2457</v>
+      </c>
+      <c r="E11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>110</v>
+      </c>
+      <c r="B12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" t="s">
+        <v>111</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>2457</v>
+      </c>
+      <c r="E12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>117</v>
+      </c>
+      <c r="B13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" t="s">
+        <v>118</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>2457</v>
+      </c>
+      <c r="E13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>124</v>
+      </c>
+      <c r="B14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" t="s">
+        <v>125</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>2457</v>
+      </c>
+      <c r="E14" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>145</v>
+      </c>
+      <c r="B15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" t="s">
+        <v>146</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>2457</v>
+      </c>
+      <c r="E15" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>131</v>
+      </c>
+      <c r="B16" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16" t="s">
+        <v>132</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>2457</v>
+      </c>
+      <c r="E16" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>138</v>
+      </c>
+      <c r="B17" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17" t="s">
+        <v>139</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>2458</v>
+      </c>
+      <c r="E17" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>82</v>
+      </c>
+      <c r="B18" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>2458</v>
+      </c>
+      <c r="E18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>178</v>
+      </c>
+      <c r="B19" t="s">
+        <v>153</v>
+      </c>
+      <c r="C19" t="s">
+        <v>179</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>2457</v>
+      </c>
+      <c r="E19" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>152</v>
+      </c>
+      <c r="B20" t="s">
+        <v>153</v>
+      </c>
+      <c r="C20" t="s">
+        <v>154</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>2457</v>
+      </c>
+      <c r="E20" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>159</v>
+      </c>
+      <c r="B21" t="s">
+        <v>153</v>
+      </c>
+      <c r="C21" t="s">
+        <v>160</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>2457</v>
+      </c>
+      <c r="E21" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>165</v>
+      </c>
+      <c r="B22" t="s">
+        <v>153</v>
+      </c>
+      <c r="C22" t="s">
+        <v>166</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>2457</v>
+      </c>
+      <c r="E22" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>171</v>
+      </c>
+      <c r="B23" t="s">
+        <v>153</v>
+      </c>
+      <c r="C23" t="s">
+        <v>172</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>2457</v>
+      </c>
+      <c r="E23" t="s">
+        <v>173</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:N23">
+    <sortCondition ref="A1:A23"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D29FA57-520F-4689-BA14-596A34846A4E}">
+  <dimension ref="A1:E35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="59.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>2456</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>521</v>
+      </c>
+      <c r="B2" t="s">
+        <v>500</v>
+      </c>
+      <c r="C2" t="s">
+        <v>522</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>2457</v>
+      </c>
+      <c r="E2" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>514</v>
+      </c>
+      <c r="B3" t="s">
+        <v>500</v>
+      </c>
+      <c r="C3" t="s">
+        <v>515</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>2457</v>
+      </c>
+      <c r="E3" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>499</v>
+      </c>
+      <c r="B4" t="s">
+        <v>500</v>
+      </c>
+      <c r="C4" t="s">
+        <v>501</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>2457</v>
+      </c>
+      <c r="E4" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>507</v>
+      </c>
+      <c r="B5" t="s">
+        <v>500</v>
+      </c>
+      <c r="C5" t="s">
+        <v>508</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>2458</v>
+      </c>
+      <c r="E5" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>528</v>
+      </c>
+      <c r="B6" t="s">
+        <v>529</v>
+      </c>
+      <c r="C6" t="s">
+        <v>530</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>2458</v>
+      </c>
+      <c r="E6" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>536</v>
+      </c>
+      <c r="B7" t="s">
+        <v>529</v>
+      </c>
+      <c r="C7" t="s">
+        <v>537</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>2458</v>
+      </c>
+      <c r="E7" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>542</v>
+      </c>
+      <c r="B8" t="s">
+        <v>529</v>
+      </c>
+      <c r="C8" t="s">
+        <v>543</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>2457</v>
+      </c>
+      <c r="E8" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>549</v>
+      </c>
+      <c r="B9" t="s">
+        <v>529</v>
+      </c>
+      <c r="C9" t="s">
+        <v>550</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>2457</v>
+      </c>
+      <c r="E9" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>556</v>
+      </c>
+      <c r="B10" t="s">
+        <v>529</v>
+      </c>
+      <c r="C10" t="s">
+        <v>557</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>2457</v>
+      </c>
+      <c r="E10" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>563</v>
+      </c>
+      <c r="B11" t="s">
+        <v>529</v>
+      </c>
+      <c r="C11" t="s">
+        <v>564</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>2457</v>
+      </c>
+      <c r="E11" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>570</v>
+      </c>
+      <c r="B12" t="s">
+        <v>571</v>
+      </c>
+      <c r="C12" t="s">
+        <v>572</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>2457</v>
+      </c>
+      <c r="E12" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>585</v>
+      </c>
+      <c r="B13" t="s">
+        <v>571</v>
+      </c>
+      <c r="C13" t="s">
+        <v>586</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>2457</v>
+      </c>
+      <c r="E13" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>592</v>
+      </c>
+      <c r="B14" t="s">
+        <v>571</v>
+      </c>
+      <c r="C14" t="s">
+        <v>593</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>2458</v>
+      </c>
+      <c r="E14" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>578</v>
+      </c>
+      <c r="B15" t="s">
+        <v>571</v>
+      </c>
+      <c r="C15" t="s">
+        <v>579</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>2458</v>
+      </c>
+      <c r="E15" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>607</v>
+      </c>
+      <c r="B16" t="s">
+        <v>600</v>
+      </c>
+      <c r="C16" t="s">
+        <v>608</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>2458</v>
+      </c>
+      <c r="E16" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>613</v>
+      </c>
+      <c r="B17" t="s">
+        <v>600</v>
+      </c>
+      <c r="C17" t="s">
+        <v>614</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>2457</v>
+      </c>
+      <c r="E17" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>618</v>
+      </c>
+      <c r="B18" t="s">
+        <v>600</v>
+      </c>
+      <c r="C18" t="s">
+        <v>619</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>2457</v>
+      </c>
+      <c r="E18" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>599</v>
+      </c>
+      <c r="B19" t="s">
+        <v>600</v>
+      </c>
+      <c r="C19" t="s">
+        <v>601</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>2457</v>
+      </c>
+      <c r="E19" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>624</v>
+      </c>
+      <c r="B20" t="s">
+        <v>600</v>
+      </c>
+      <c r="C20" t="s">
+        <v>625</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>2457</v>
+      </c>
+      <c r="E20" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>659</v>
+      </c>
+      <c r="B21" t="s">
+        <v>632</v>
+      </c>
+      <c r="C21" t="s">
+        <v>660</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>2457</v>
+      </c>
+      <c r="E21" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>652</v>
+      </c>
+      <c r="B22" t="s">
+        <v>632</v>
+      </c>
+      <c r="C22" t="s">
+        <v>653</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>2458</v>
+      </c>
+      <c r="E22" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>631</v>
+      </c>
+      <c r="B23" t="s">
+        <v>632</v>
+      </c>
+      <c r="C23" t="s">
+        <v>633</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>2457</v>
+      </c>
+      <c r="E23" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>645</v>
+      </c>
+      <c r="B24" t="s">
+        <v>632</v>
+      </c>
+      <c r="C24" t="s">
+        <v>646</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>2458</v>
+      </c>
+      <c r="E24" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>639</v>
+      </c>
+      <c r="B25" t="s">
+        <v>632</v>
+      </c>
+      <c r="C25" t="s">
+        <v>640</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>2458</v>
+      </c>
+      <c r="E25" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>673</v>
+      </c>
+      <c r="B26" t="s">
+        <v>666</v>
+      </c>
+      <c r="C26" t="s">
+        <v>674</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>2458</v>
+      </c>
+      <c r="E26" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>680</v>
+      </c>
+      <c r="B27" t="s">
+        <v>666</v>
+      </c>
+      <c r="C27" t="s">
+        <v>681</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>2458</v>
+      </c>
+      <c r="E27" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>687</v>
+      </c>
+      <c r="B28" t="s">
+        <v>666</v>
+      </c>
+      <c r="C28" t="s">
+        <v>688</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>2457</v>
+      </c>
+      <c r="E28" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>694</v>
+      </c>
+      <c r="B29" t="s">
+        <v>666</v>
+      </c>
+      <c r="C29" t="s">
+        <v>695</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>2457</v>
+      </c>
+      <c r="E29" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>665</v>
+      </c>
+      <c r="B30" t="s">
+        <v>666</v>
+      </c>
+      <c r="C30" t="s">
+        <v>667</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>2458</v>
+      </c>
+      <c r="E30" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>709</v>
+      </c>
+      <c r="B31" t="s">
+        <v>702</v>
+      </c>
+      <c r="C31" t="s">
+        <v>710</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>2457</v>
+      </c>
+      <c r="E31" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>716</v>
+      </c>
+      <c r="B32" t="s">
+        <v>702</v>
+      </c>
+      <c r="C32" t="s">
+        <v>717</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>2457</v>
+      </c>
+      <c r="E32" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>722</v>
+      </c>
+      <c r="B33" t="s">
+        <v>702</v>
+      </c>
+      <c r="C33" t="s">
+        <v>723</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>2457</v>
+      </c>
+      <c r="E33" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>701</v>
+      </c>
+      <c r="B34" t="s">
+        <v>702</v>
+      </c>
+      <c r="C34" t="s">
+        <v>703</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>2457</v>
+      </c>
+      <c r="E34" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>727</v>
+      </c>
+      <c r="B35" t="s">
+        <v>702</v>
+      </c>
+      <c r="C35" t="s">
+        <v>728</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>2457</v>
+      </c>
+      <c r="E35" t="s">
+        <v>729</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E35">
+    <sortCondition ref="A2:A35"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E35645F4-D2BF-44DE-A95B-3FC9545FCDDD}">
+  <dimension ref="A1:E25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>2456</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>2457</v>
+      </c>
+      <c r="E2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>249</v>
+      </c>
+      <c r="B3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C3" t="s">
+        <v>250</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>2457</v>
+      </c>
+      <c r="E3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>243</v>
+      </c>
+      <c r="B4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C4" t="s">
+        <v>244</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>2457</v>
+      </c>
+      <c r="E4" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>237</v>
+      </c>
+      <c r="B5" t="s">
+        <v>206</v>
+      </c>
+      <c r="C5" t="s">
+        <v>238</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>2457</v>
+      </c>
+      <c r="E5" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>205</v>
+      </c>
+      <c r="B6" t="s">
+        <v>206</v>
+      </c>
+      <c r="C6" t="s">
+        <v>207</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>2457</v>
+      </c>
+      <c r="E6" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>231</v>
+      </c>
+      <c r="B7" t="s">
+        <v>206</v>
+      </c>
+      <c r="C7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>2457</v>
+      </c>
+      <c r="E7" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>225</v>
+      </c>
+      <c r="B8" t="s">
+        <v>206</v>
+      </c>
+      <c r="C8" t="s">
+        <v>226</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>2457</v>
+      </c>
+      <c r="E8" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>219</v>
+      </c>
+      <c r="B9" t="s">
+        <v>206</v>
+      </c>
+      <c r="C9" t="s">
+        <v>220</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>2457</v>
+      </c>
+      <c r="E9" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>213</v>
+      </c>
+      <c r="B10" t="s">
+        <v>206</v>
+      </c>
+      <c r="C10" t="s">
+        <v>214</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>2458</v>
+      </c>
+      <c r="E10" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>261</v>
+      </c>
+      <c r="B11" t="s">
+        <v>206</v>
+      </c>
+      <c r="C11" t="s">
+        <v>262</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>2457</v>
+      </c>
+      <c r="E11" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>288</v>
+      </c>
+      <c r="B12" t="s">
+        <v>269</v>
+      </c>
+      <c r="C12" t="s">
+        <v>289</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>2457</v>
+      </c>
+      <c r="E12" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>268</v>
+      </c>
+      <c r="B13" t="s">
+        <v>269</v>
+      </c>
+      <c r="C13" t="s">
+        <v>270</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>2457</v>
+      </c>
+      <c r="E13" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>282</v>
+      </c>
+      <c r="B14" t="s">
+        <v>269</v>
+      </c>
+      <c r="C14" t="s">
+        <v>283</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>2457</v>
+      </c>
+      <c r="E14" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>295</v>
+      </c>
+      <c r="B15" t="s">
+        <v>269</v>
+      </c>
+      <c r="C15" t="s">
+        <v>296</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>2457</v>
+      </c>
+      <c r="E15" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>276</v>
+      </c>
+      <c r="B16" t="s">
+        <v>269</v>
+      </c>
+      <c r="C16" t="s">
+        <v>277</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>2458</v>
+      </c>
+      <c r="E16" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>323</v>
+      </c>
+      <c r="B17" t="s">
+        <v>302</v>
+      </c>
+      <c r="C17" t="s">
+        <v>324</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>2457</v>
+      </c>
+      <c r="E17" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>336</v>
+      </c>
+      <c r="B18" t="s">
+        <v>302</v>
+      </c>
+      <c r="C18" t="s">
+        <v>337</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>2457</v>
+      </c>
+      <c r="E18" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>342</v>
+      </c>
+      <c r="B19" t="s">
+        <v>302</v>
+      </c>
+      <c r="C19" t="s">
+        <v>343</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>2457</v>
+      </c>
+      <c r="E19" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>301</v>
+      </c>
+      <c r="B20" t="s">
+        <v>302</v>
+      </c>
+      <c r="C20" t="s">
+        <v>303</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>2457</v>
+      </c>
+      <c r="E20" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>330</v>
+      </c>
+      <c r="B21" t="s">
+        <v>302</v>
+      </c>
+      <c r="C21" t="s">
+        <v>331</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>2458</v>
+      </c>
+      <c r="E21" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>316</v>
+      </c>
+      <c r="B22" t="s">
+        <v>302</v>
+      </c>
+      <c r="C22" t="s">
+        <v>317</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>2458</v>
+      </c>
+      <c r="E22" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>309</v>
+      </c>
+      <c r="B23" t="s">
+        <v>302</v>
+      </c>
+      <c r="C23" t="s">
+        <v>310</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>2458</v>
+      </c>
+      <c r="E23" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>348</v>
+      </c>
+      <c r="B24" t="s">
+        <v>349</v>
+      </c>
+      <c r="C24" t="s">
+        <v>350</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>2457</v>
+      </c>
+      <c r="E24" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>355</v>
+      </c>
+      <c r="B25" t="s">
+        <v>349</v>
+      </c>
+      <c r="C25" t="s">
+        <v>356</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>2457</v>
+      </c>
+      <c r="E25" t="s">
+        <v>356</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E25">
+    <sortCondition ref="A2:A25"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25AC7AB7-2615-4DDC-8CA8-3B0156DBE4E5}">
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>2456</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>2458</v>
+      </c>
+      <c r="E2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>2457</v>
+      </c>
+      <c r="E3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>198</v>
+      </c>
+      <c r="B4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>2457</v>
+      </c>
+      <c r="E4" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>369</v>
+      </c>
+      <c r="B5" t="s">
+        <v>362</v>
+      </c>
+      <c r="C5" t="s">
+        <v>370</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>2458</v>
+      </c>
+      <c r="E5" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>376</v>
+      </c>
+      <c r="B6" t="s">
+        <v>362</v>
+      </c>
+      <c r="C6" t="s">
+        <v>377</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>2457</v>
+      </c>
+      <c r="E6" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>361</v>
+      </c>
+      <c r="B7" t="s">
+        <v>362</v>
+      </c>
+      <c r="C7" t="s">
+        <v>363</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>2457</v>
+      </c>
+      <c r="E7" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>383</v>
+      </c>
+      <c r="B8" t="s">
+        <v>384</v>
+      </c>
+      <c r="C8" t="s">
+        <v>385</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>2457</v>
+      </c>
+      <c r="E8" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>398</v>
+      </c>
+      <c r="B9" t="s">
+        <v>384</v>
+      </c>
+      <c r="C9" t="s">
+        <v>399</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>2457</v>
+      </c>
+      <c r="E9" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>391</v>
+      </c>
+      <c r="B10" t="s">
+        <v>384</v>
+      </c>
+      <c r="C10" t="s">
+        <v>392</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>2457</v>
+      </c>
+      <c r="E10" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>405</v>
+      </c>
+      <c r="B11" t="s">
+        <v>384</v>
+      </c>
+      <c r="C11" t="s">
+        <v>406</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>2457</v>
+      </c>
+      <c r="E11" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>420</v>
+      </c>
+      <c r="B12" t="s">
+        <v>413</v>
+      </c>
+      <c r="C12" t="s">
+        <v>421</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>2457</v>
+      </c>
+      <c r="E12" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>412</v>
+      </c>
+      <c r="B13" t="s">
+        <v>413</v>
+      </c>
+      <c r="C13" t="s">
+        <v>414</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>2458</v>
+      </c>
+      <c r="E13" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>426</v>
+      </c>
+      <c r="B14" t="s">
+        <v>427</v>
+      </c>
+      <c r="C14" t="s">
+        <v>428</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>2457</v>
+      </c>
+      <c r="E14" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>742</v>
+      </c>
+      <c r="B15" t="s">
+        <v>735</v>
+      </c>
+      <c r="C15" t="s">
+        <v>743</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>2458</v>
+      </c>
+      <c r="E15" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>734</v>
+      </c>
+      <c r="B16" t="s">
+        <v>735</v>
+      </c>
+      <c r="C16" t="s">
+        <v>736</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>2457</v>
+      </c>
+      <c r="E16" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>749</v>
+      </c>
+      <c r="B17" t="s">
+        <v>735</v>
+      </c>
+      <c r="C17" t="s">
+        <v>750</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>2457</v>
+      </c>
+      <c r="E17" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>755</v>
+      </c>
+      <c r="B18" t="s">
+        <v>735</v>
+      </c>
+      <c r="C18" t="s">
+        <v>756</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>2457</v>
+      </c>
+      <c r="E18" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>761</v>
+      </c>
+      <c r="B19" t="s">
+        <v>735</v>
+      </c>
+      <c r="C19" t="s">
+        <v>762</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>2457</v>
+      </c>
+      <c r="E19" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>767</v>
+      </c>
+      <c r="B20" t="s">
+        <v>735</v>
+      </c>
+      <c r="C20" t="s">
+        <v>768</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>2457</v>
+      </c>
+      <c r="E20" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>774</v>
+      </c>
+      <c r="B21" t="s">
+        <v>735</v>
+      </c>
+      <c r="C21" t="s">
+        <v>775</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>2458</v>
+      </c>
+      <c r="E21" t="s">
+        <v>776</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E21">
+    <sortCondition ref="A2:A21"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>